--- a/public/template/UKLUPL Template.xlsx
+++ b/public/template/UKLUPL Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Amdalnet\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\perubahan_pl\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5886B3D-DB11-4443-BBE1-0DD63FF42A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48C49F2-6728-4D68-A461-E773AFCDD79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{641A4498-D2F5-488B-BE25-2495AC699318}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Sumber Dampak</t>
   </si>
@@ -64,6 +64,10 @@
   </si>
   <si>
     <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Tahap Kegiatan
+(Pra Konstruksi/Konstruksi/Operasi/Pasca Operasi)</t>
   </si>
 </sst>
 </file>
@@ -99,13 +103,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,83 +431,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944E9DE9-D5BE-451C-8FE8-31C4FE61F4B1}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="9" width="15.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="45.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="K1:K2"/>
+  <mergeCells count="8">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/template/UKLUPL Template.xlsx
+++ b/public/template/UKLUPL Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\perubahan_pl\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48C49F2-6728-4D68-A461-E773AFCDD79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9B2087-792A-4395-8774-408356DD5ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{641A4498-D2F5-488B-BE25-2495AC699318}"/>
   </bookViews>
@@ -109,13 +109,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,7 +434,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A994" sqref="A994"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,40 +449,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
@@ -501,8 +501,8 @@
       <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -515,6 +515,11 @@
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:K2"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A1000" xr:uid="{6BBAB246-793E-4D82-9443-643F5B7ABAB1}">
+      <formula1>"Pra Konstruksi, Konstruksi, Operasi, Pasca Operasi"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>